--- a/Estimation.xlsx
+++ b/Estimation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>N°Sous Système</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Travaux</t>
   </si>
   <si>
-    <t>CMP prestation unitaire</t>
-  </si>
-  <si>
-    <t>Fournitures prestation unitaire</t>
+    <t>CMP préstation unitaire</t>
+  </si>
+  <si>
+    <t>Fournitures préstation unitaire</t>
   </si>
   <si>
     <t>COUT MO</t>
@@ -40,31 +40,10 @@
     <t>COUT TOTAL</t>
   </si>
   <si>
-    <t>Installation d'une caméra</t>
-  </si>
-  <si>
-    <t>Installation d'un système d'alarme effraction intrusion équipé de 3 capteurs</t>
-  </si>
-  <si>
-    <t>Installation d'un rupteur d'AA, d'un contrôleur d'actionnement ou d'un coffret de déclenchement</t>
-  </si>
-  <si>
-    <t>Installation d'un module alarmes techniques avec carte simple</t>
-  </si>
-  <si>
-    <t>Installation d'une sirène autonome type 3</t>
-  </si>
-  <si>
-    <t>Installation d'une dome</t>
+    <t>Installation d'un lecteur "passe sans contact"</t>
   </si>
   <si>
     <t>JOUR</t>
-  </si>
-  <si>
-    <t>NUIT LONGUE</t>
-  </si>
-  <si>
-    <t>NUIT COURTE</t>
   </si>
 </sst>
 </file>
@@ -422,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,210 +435,80 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>524.5786000000001</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>266.12</v>
+        <v>124.16</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>275.1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>972.4799999999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1247.58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>116.98</v>
+        <v>124.16</v>
       </c>
       <c r="F3">
-        <v>4153.92</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>467.92</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4621.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>799.6186</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>266.12</v>
+        <v>124.16</v>
       </c>
       <c r="F4">
-        <v>2199.84</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4262.954400000001</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6462.794400000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>3.2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>116.98</v>
-      </c>
-      <c r="F5">
-        <v>4153.92</v>
-      </c>
-      <c r="G5">
-        <v>467.92</v>
-      </c>
-      <c r="H5">
-        <v>4621.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>3.5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>24.47</v>
-      </c>
-      <c r="F6">
-        <v>1361.376</v>
-      </c>
-      <c r="G6">
-        <v>97.88</v>
-      </c>
-      <c r="H6">
-        <v>1459.256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>3.6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>57.1</v>
-      </c>
-      <c r="F7">
-        <v>2295.952</v>
-      </c>
-      <c r="G7">
-        <v>285.5</v>
-      </c>
-      <c r="H7">
-        <v>2581.452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>3.7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>29.56</v>
-      </c>
-      <c r="F8">
-        <v>1447</v>
-      </c>
-      <c r="G8">
-        <v>147.8</v>
-      </c>
-      <c r="H8">
-        <v>1594.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>3.4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>749.6186</v>
-      </c>
-      <c r="E9">
-        <v>304.14</v>
-      </c>
-      <c r="F9">
-        <v>1723.28</v>
-      </c>
-      <c r="G9">
-        <v>2107.5172</v>
-      </c>
-      <c r="H9">
-        <v>3830.7972</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
